--- a/Ogrebook.xlsx
+++ b/Ogrebook.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!СРабСтола\5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="6">
   <si>
     <t>polygon(</t>
   </si>
@@ -36,6 +31,12 @@
   </si>
   <si>
     <t>ухо2</t>
+  </si>
+  <si>
+    <t>//огер</t>
+  </si>
+  <si>
+    <t>//накидка</t>
   </si>
 </sst>
 </file>
@@ -134,7 +135,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,7 +170,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -346,7 +347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -354,15 +355,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,7 +377,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>42</v>
       </c>
@@ -387,7 +388,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>65</v>
       </c>
@@ -398,7 +399,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>70</v>
       </c>
@@ -409,7 +410,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>87</v>
       </c>
@@ -420,7 +421,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>97</v>
       </c>
@@ -431,7 +432,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>107</v>
       </c>
@@ -442,7 +443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>140</v>
       </c>
@@ -453,7 +454,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>156</v>
       </c>
@@ -464,7 +465,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>168</v>
       </c>
@@ -475,242 +476,1089 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>168</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>86</v>
       </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>172</v>
       </c>
-      <c r="C12">
-        <v>180</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>178</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>192</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
         <v>77</v>
       </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>226</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>85</v>
       </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>240</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>87</v>
       </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>261</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>94</v>
       </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>244</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18">
         <v>103</v>
       </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>261</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
         <v>95</v>
       </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>279</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20">
         <v>90</v>
       </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>290</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>302</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22">
         <v>83</v>
       </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>300</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>313</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>80</v>
       </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>321</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
         <v>79</v>
       </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>327</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>70</v>
       </c>
-      <c r="D26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>358</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>1</v>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>373</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>395</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>411</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>418</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>419</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>420</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>135</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>420</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>413</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>408</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>418</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>435</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>442</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>451</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>153</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>164</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>185</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>225</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>271</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>304</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>356</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>408</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>172</v>
+      </c>
+      <c r="G51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>418</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>435</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>344</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>310</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>260</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>267</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>243</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>257</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>237</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>213</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>194</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>213</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>146</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>140</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>168</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>168</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>178</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>419</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>425</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>429</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>431</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>432</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>426</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>420</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>279</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>291</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>290</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>172</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>168</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>168</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>184</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>198</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>214</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>245</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>255</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>268</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>277</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>284</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>299</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>301</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>290</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>291</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>279</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>244</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>261</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>240</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>226</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>192</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>178</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>172</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>245</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>253</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>264</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>270</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>274</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>277</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
